--- a/analisis/03_PASO3B_MANN_WHITNEY_U_N2480.xlsx
+++ b/analisis/03_PASO3B_MANN_WHITNEY_U_N2480.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mann-Whitney_U_N2480" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Interpretacion" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Comparacion_t-Student_vs_MW" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Mann_Whitney_N2480" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -32,22 +27,14 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -68,22 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,87 +432,71 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Métrica</t>
+          <t>Metrica</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>N Manual</t>
+          <t>N_Manual</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>N AI</t>
+          <t>N_IA</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mediana Manual</t>
+          <t>Mediana_Manual</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Mediana AI</t>
+          <t>Mediana_IA</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Media Manual</t>
+          <t>Media_Manual</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Media AI</t>
+          <t>Media_IA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Desv.Est. Manual</t>
+          <t>Diferencia_Mediana</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Desv.Est. AI</t>
+          <t>U_statistic</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>U-statistic</t>
+          <t>Z_score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Z-score</t>
+          <t>p_value</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>p-value</t>
+          <t>r_effect_size</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>r (effect size)</t>
+          <t>Interpretacion</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -547,418 +506,202 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Instruction Coverage (%)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>1600</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>880</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" t="n">
         <v>21.85</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" t="n">
         <v>10.69</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>19.941</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>14.201</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>12.1149</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>8.7074</v>
-      </c>
-      <c r="J2" s="3" t="n">
+      <c r="G2" t="n">
+        <v>14.20104545454545</v>
+      </c>
+      <c r="H2" t="n">
+        <v>11.16</v>
+      </c>
+      <c r="I2" t="n">
         <v>827440</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>7.2349</v>
-      </c>
-      <c r="L2" s="4" t="n">
+      <c r="J2" t="n">
+        <v>7.234888235680322</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.200491962401115e-13</v>
       </c>
-      <c r="M2" s="3" t="n">
-        <v>0.1453</v>
-      </c>
-      <c r="N2" s="2" t="inlineStr">
-        <is>
-          <t>Sí</t>
+      <c r="L2" t="n">
+        <v>0.1452800518336933</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Branch Coverage (%)</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" t="n">
         <v>1600</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" t="n">
         <v>880</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" t="n">
         <v>12.5</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" t="n">
         <v>16.25</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>17.6875</v>
       </c>
-      <c r="G3" s="3" t="n">
-        <v>13.5028</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>12.3926</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>6.7479</v>
-      </c>
-      <c r="J3" s="3" t="n">
+      <c r="G3" t="n">
+        <v>13.50284090909091</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="I3" t="n">
         <v>808720</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>6.1377</v>
-      </c>
-      <c r="L3" s="4" t="n">
+      <c r="J3" t="n">
+        <v>6.1376984449161</v>
+      </c>
+      <c r="K3" t="n">
         <v>5.730940536863874e-10</v>
       </c>
-      <c r="M3" s="3" t="n">
-        <v>0.1232</v>
-      </c>
-      <c r="N3" s="2" t="inlineStr">
-        <is>
-          <t>Sí</t>
+      <c r="L3" t="n">
+        <v>0.1232479506482855</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Pequeño</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Mutation Score (%)</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" t="n">
         <v>1600</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" t="n">
         <v>880</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" t="n">
         <v>16.67</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" t="n">
         <v>19.44</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>22.918</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>16.6339</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>17.1925</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>8.160600000000001</v>
-      </c>
-      <c r="J4" s="3" t="n">
+      <c r="G4" t="n">
+        <v>16.63388636363636</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="I4" t="n">
         <v>752840</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>2.8625</v>
-      </c>
-      <c r="L4" s="4" t="n">
+      <c r="J4" t="n">
+        <v>2.862540031032299</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.003818349571160616</v>
       </c>
-      <c r="M4" s="3" t="n">
-        <v>0.0575</v>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>Sí</t>
+      <c r="L4" t="n">
+        <v>0.05748118706705753</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Negligible</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Time (seconds)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" t="n">
         <v>1600</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" t="n">
         <v>880</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" t="n">
         <v>0.012</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" t="n">
         <v>0.003</v>
       </c>
-      <c r="F5" s="3" t="n">
-        <v>0.0794</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>0.1775</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.2318</v>
-      </c>
-      <c r="J5" s="3" t="n">
+      <c r="F5" t="n">
+        <v>0.079395625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1140261363636364</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.009000000000000001</v>
+      </c>
+      <c r="I5" t="n">
         <v>774034</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>4.1047</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="J5" t="n">
+        <v>4.104732361452006</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.74256218262511e-05</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <v>0.0824</v>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="100" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-MANN-WHITNEY U TEST - INTERPRETACIÓN
-════════════════════════════════════════════════════════════════════════════════
-MÉTODO ESTADÍSTICO:
-  • Prueba no-paramétrica (no asume normalidad)
-  • Compara medianas en lugar de medias
-  • Válida para datos que violan normalidad
-  • Robusto a outliers
-HIPÓTESIS:
-  H₀: La distribución de Manual = La distribución de AI (no hay diferencia)
-  H₁: La distribución de Manual ≠ La distribución de AI (hay diferencia)
-NIVEL DE SIGNIFICANCIA:
-  α = 0.05 (5% de error permitido)
-INTERPRETACIÓN DE RESULTADOS:
-  • Si p-value &gt; 0.05 → NO rechazamos H₀ → NO hay diferencia significativa
-  • Si p-value &lt; 0.05 → Rechazamos H₀ → Hay diferencia significativa
-TAMAÑO DEL EFECTO (r):
-  • r &lt; 0.1   → Efecto negligible
-  • 0.1 ≤ r &lt; 0.3  → Efecto pequeño
-  • 0.3 ≤ r &lt; 0.5  → Efecto mediano
-  • r ≥ 0.5   → Efecto grande
-════════════════════════════════════════════════════════════════════════════════
-VALIDACIÓN DE CONCORDANCIA:
-Si los p-values de Mann-Whitney U son SIMILARES a los de t-Student:
-  ✓ Las conclusiones son ROBUSTAS
-  ✓ No hay diferencias por violación de normalidad
-  ✓ Conclusiones son válidas independientemente del método
-Si hay GRANDES DIFERENCIAS entre p-values:
-  ✓ Requiere investigación adicional
-  ✓ Pueden existir outliers significativos
-  ✓ Los datos brutos pueden necesitar transformación
-════════════════════════════════════════════════════════════════════════════════
-</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Métrica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>t-Student p-value</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mann-Whitney p-value</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Diferencia</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Concordancia</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Conclusión</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Instruction Coverage (%)</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>0.9350441276338065</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>3.200491962401115e-13</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>0.9350441276334864</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>⚠ PARCIAL</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>Requiere análisis</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Branch Coverage (%)</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>0.702187336897783</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>5.730940536863874e-10</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.702187336324689</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>⚠ PARCIAL</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>Requiere análisis</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Mutation Score (%)</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>0.6726876222917011</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0.003818349571160616</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.6688692727205405</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>⚠ PARCIAL</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>Requiere análisis</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Time (seconds)</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0.2292531524231591</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>3.74256218262511e-05</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.2292157268013328</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>⚠ PARCIAL</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Requiere análisis</t>
+      <c r="L5" t="n">
+        <v>0.08242500931724625</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Negligible</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SI</t>
         </is>
       </c>
     </row>
